--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">It would succeed in limiting climate change</t>
@@ -410,228 +407,192 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.04</v>
+        <v>1.14666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.928571428571429</v>
+        <v>1.14457831325301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9375</v>
+        <v>1.23076923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.541666666666667</v>
+        <v>0.294117647058824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.493333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.571428571428571</v>
+        <v>0.518072289156627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.958333333333333</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.72</v>
+        <v>0.613333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.785714285714286</v>
+        <v>0.506024096385542</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.75</v>
+        <v>0.352941176470588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1.08</v>
+        <v>0.973333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>1.07142857142857</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.823529411764706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.92</v>
+        <v>1.14666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>1.21428571428571</v>
+        <v>1.10843373493976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6875</v>
+        <v>1.23076923076923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.541666666666667</v>
+        <v>0.529411764705882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.986666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.590361445783133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.375</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.166666666666667</v>
+        <v>0.352941176470588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.56</v>
+        <v>0.76</v>
       </c>
       <c r="C8" t="n">
-        <v>1.28571428571429</v>
+        <v>1.01204819277108</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6875</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.583333333333333</v>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.76</v>
+        <v>1.09333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.857142857142857</v>
+        <v>0.662650602409639</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0625</v>
+        <v>1.01923076923077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.518072289156627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>1.05769230769231</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0625</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.666666666666667</v>
+        <v>0.823529411764706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.48</v>
+        <v>0.56</v>
       </c>
       <c r="C11" t="n">
-        <v>0.142857142857143</v>
+        <v>0.36144578313253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6875</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.125</v>
+        <v>0.411764705882353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.64</v>
+        <v>1.22666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214285714285714</v>
+        <v>0.55421686746988</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3125</v>
+        <v>1.36538461538462</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.541666666666667</v>
+        <v>0.882352941176471</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">It would succeed in limiting climate change</t>
@@ -407,193 +410,207 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.14666666666667</v>
+        <v>1.1461038961039</v>
       </c>
       <c r="C2" t="n">
-        <v>1.14457831325301</v>
+        <v>1.13821138211382</v>
       </c>
       <c r="D2" t="n">
-        <v>1.23076923076923</v>
+        <v>1.14448669201521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.294117647058824</v>
-      </c>
+        <v>0.978461538461538</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.493333333333333</v>
+        <v>0.331168831168831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.518072289156627</v>
+        <v>0.493224932249323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.653846153846154</v>
+        <v>0.555133079847909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.705882352941177</v>
-      </c>
+        <v>0.498461538461538</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.613333333333333</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.506024096385542</v>
+        <v>0.514905149051491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.414448669201521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.352941176470588</v>
-      </c>
+        <v>0.326153846153846</v>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.973333333333333</v>
+        <v>0.941558441558442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.963855421686747</v>
+        <v>0.905149051490515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.707224334600761</v>
       </c>
       <c r="E5" t="n">
-        <v>0.823529411764706</v>
-      </c>
+        <v>0.858461538461538</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.14666666666667</v>
+        <v>1.13961038961039</v>
       </c>
       <c r="C6" t="n">
-        <v>1.10843373493976</v>
+        <v>1.04336043360434</v>
       </c>
       <c r="D6" t="n">
-        <v>1.23076923076923</v>
+        <v>1.12167300380228</v>
       </c>
       <c r="E6" t="n">
-        <v>0.529411764705882</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986666666666667</v>
+        <v>0.707792207792208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.590361445783133</v>
+        <v>0.485094850948509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.596153846153846</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="E7" t="n">
-        <v>0.352941176470588</v>
-      </c>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.76</v>
+        <v>0.922077922077922</v>
       </c>
       <c r="C8" t="n">
-        <v>1.01204819277108</v>
+        <v>0.921409214092141</v>
       </c>
       <c r="D8" t="n">
-        <v>0.923076923076923</v>
+        <v>1.06083650190114</v>
       </c>
       <c r="E8" t="n">
-        <v>0.647058823529412</v>
-      </c>
+        <v>0.855384615384615</v>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>1.09333333333333</v>
+        <v>0.931818181818182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.662650602409639</v>
+        <v>0.569105691056911</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01923076923077</v>
+        <v>0.91254752851711</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.92</v>
+        <v>0.844155844155844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.518072289156627</v>
+        <v>0.734417344173442</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05769230769231</v>
+        <v>0.996197718631179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.823529411764706</v>
-      </c>
+        <v>0.935384615384615</v>
+      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.56</v>
+        <v>0.665584415584416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.36144578313253</v>
+        <v>0.411924119241192</v>
       </c>
       <c r="D11" t="n">
-        <v>0.673076923076923</v>
+        <v>0.722433460076046</v>
       </c>
       <c r="E11" t="n">
-        <v>0.411764705882353</v>
-      </c>
+        <v>0.704615384615385</v>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>1.22666666666667</v>
+        <v>1.1525974025974</v>
       </c>
       <c r="C12" t="n">
-        <v>0.55421686746988</v>
+        <v>0.520325203252033</v>
       </c>
       <c r="D12" t="n">
-        <v>1.36538461538462</v>
+        <v>1.24714828897338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.882352941176471</v>
-      </c>
+        <v>1.25846153846154</v>
+      </c>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">It would succeed in limiting climate change</t>
@@ -413,204 +416,240 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.1461038961039</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>1.13821138211382</v>
+        <v>1.08156598115927</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14448669201521</v>
+        <v>1.16682436489246</v>
       </c>
       <c r="E2" t="n">
-        <v>0.978461538461538</v>
-      </c>
-      <c r="F2"/>
+        <v>1.09259246143955</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.1393791340228</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.00910977665655</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.331168831168831</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.493224932249323</v>
+        <v>0.477711981072237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.555133079847909</v>
+        <v>0.2751590694877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.498461538461538</v>
-      </c>
-      <c r="F3"/>
+        <v>0.493879049768326</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.549626218042804</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.498203188373633</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.227272727272727</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.514905149051491</v>
+        <v>0.379849211060457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.414448669201521</v>
+        <v>0.230808546227281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.326153846153846</v>
-      </c>
-      <c r="F4"/>
+        <v>0.475612421927424</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.391476132205322</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.360873542969766</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.941558441558442</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.905149051490515</v>
+        <v>0.855727780865044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.707224334600761</v>
+        <v>0.978394380824641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.858461538461538</v>
-      </c>
-      <c r="F5"/>
+        <v>0.828405267545854</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.796509136612487</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.895828299724214</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.13961038961039</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
-        <v>1.04336043360434</v>
+        <v>1.05341609549175</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12167300380228</v>
+        <v>1.1877196568085</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6"/>
+        <v>0.94655834063843</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.08598810211523</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.967109214577244</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.707792207792208</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7"/>
       <c r="C7" t="n">
-        <v>0.485094850948509</v>
+        <v>0.598003665356901</v>
       </c>
       <c r="D7" t="n">
-        <v>0.760456273764259</v>
+        <v>0.753642809930565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="F7"/>
+        <v>0.42977553156312</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.773756559507505</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.500441645746197</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.922077922077922</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B8"/>
       <c r="C8" t="n">
-        <v>0.921409214092141</v>
+        <v>0.917582944077895</v>
       </c>
       <c r="D8" t="n">
-        <v>1.06083650190114</v>
+        <v>0.980701987917796</v>
       </c>
       <c r="E8" t="n">
-        <v>0.855384615384615</v>
-      </c>
-      <c r="F8"/>
+        <v>0.853302568163992</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.046651745545</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.961293340577126</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.931818181818182</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9"/>
       <c r="C9" t="n">
-        <v>0.569105691056911</v>
+        <v>0.722285808910764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.91254752851711</v>
+        <v>0.885527998681972</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F9"/>
+        <v>0.513751764911319</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.878327260529236</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.607895017695698</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.844155844155844</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B10"/>
       <c r="C10" t="n">
-        <v>0.734417344173442</v>
+        <v>0.859177111374679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.996197718631179</v>
+        <v>0.81026934101115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.935384615384615</v>
-      </c>
-      <c r="F10"/>
+        <v>0.744025092984198</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.999752316105447</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.920355190749808</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.665584415584416</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
-        <v>0.411924119241192</v>
+        <v>0.60212459785796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.722433460076046</v>
+        <v>0.633746177521846</v>
       </c>
       <c r="E11" t="n">
-        <v>0.704615384615385</v>
-      </c>
-      <c r="F11"/>
+        <v>0.416874713661864</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.783395928588585</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.603265243742281</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.1525974025974</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12"/>
       <c r="C12" t="n">
-        <v>0.520325203252033</v>
+        <v>0.999536832381892</v>
       </c>
       <c r="D12" t="n">
-        <v>1.24714828897338</v>
+        <v>1.17017474840057</v>
       </c>
       <c r="E12" t="n">
-        <v>1.25846153846154</v>
-      </c>
-      <c r="F12"/>
+        <v>0.455048913466403</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.21974896877788</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.24834713548543</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -424,231 +424,253 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>1.08156598115927</v>
+        <v>1.08319023827628</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16682436489246</v>
+        <v>1.16421619628793</v>
       </c>
       <c r="E2" t="n">
-        <v>1.09259246143955</v>
+        <v>1.12138821470141</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1393791340228</v>
+        <v>1.14196195614053</v>
       </c>
       <c r="G2" t="n">
-        <v>1.00910977665655</v>
+        <v>0.994200987726731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.477711981072237</v>
+        <v>0.503573902345914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2751590694877</v>
+        <v>0.326311051797047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.493879049768326</v>
+        <v>0.49059571494142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.549626218042804</v>
+        <v>0.554227372219119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.498203188373633</v>
+        <v>0.598466829505179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.379849211060457</v>
+        <v>0.382454139002094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230808546227281</v>
+        <v>0.206601675425004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.475612421927424</v>
+        <v>0.465794884093649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.391476132205322</v>
+        <v>0.405541446132897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.360873542969766</v>
+        <v>0.447857578504275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.855727780865044</v>
+        <v>0.865785954866452</v>
       </c>
       <c r="D5" t="n">
-        <v>0.978394380824641</v>
+        <v>0.971482366626124</v>
       </c>
       <c r="E5" t="n">
-        <v>0.828405267545854</v>
+        <v>0.881274103782843</v>
       </c>
       <c r="F5" t="n">
-        <v>0.796509136612487</v>
+        <v>0.833425902886935</v>
       </c>
       <c r="G5" t="n">
-        <v>0.895828299724214</v>
+        <v>0.820218479840119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C6" t="n">
-        <v>1.05341609549175</v>
+        <v>1.06272619770505</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1877196568085</v>
+        <v>1.17792786578861</v>
       </c>
       <c r="E6" t="n">
-        <v>0.94655834063843</v>
+        <v>1.02873364849604</v>
       </c>
       <c r="F6" t="n">
-        <v>1.08598810211523</v>
+        <v>1.09490947166375</v>
       </c>
       <c r="G6" t="n">
-        <v>0.967109214577244</v>
+        <v>0.994777050138841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.598003665356901</v>
+        <v>0.619751750429645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.753642809930565</v>
+        <v>0.784575949285773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.42977553156312</v>
+        <v>0.447065353779166</v>
       </c>
       <c r="F7" t="n">
-        <v>0.773756559507505</v>
+        <v>0.788499622673619</v>
       </c>
       <c r="G7" t="n">
-        <v>0.500441645746197</v>
+        <v>0.580182942822198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.917582944077895</v>
+        <v>0.938323106301198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.980701987917796</v>
+        <v>0.9330637202976</v>
       </c>
       <c r="E8" t="n">
-        <v>0.853302568163992</v>
+        <v>0.925849194780859</v>
       </c>
       <c r="F8" t="n">
-        <v>1.046651745545</v>
+        <v>1.0660813313343</v>
       </c>
       <c r="G8" t="n">
-        <v>0.961293340577126</v>
+        <v>0.908435564464885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.722285808910764</v>
+        <v>0.75532203462695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.885527998681972</v>
+        <v>0.92640368352775</v>
       </c>
       <c r="E9" t="n">
-        <v>0.513751764911319</v>
+        <v>0.571664675145692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.878327260529236</v>
+        <v>0.884066977078344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.607895017695698</v>
+        <v>0.680453799881766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.859177111374679</v>
+        <v>0.86498612794777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.81026934101115</v>
+        <v>0.874192803519746</v>
       </c>
       <c r="E10" t="n">
-        <v>0.744025092984198</v>
+        <v>0.72234949549522</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999752316105447</v>
+        <v>1.00003979973907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.920355190749808</v>
+        <v>0.938247453258391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.60212459785796</v>
+        <v>0.600233067631801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.633746177521846</v>
+        <v>0.68284068601186</v>
       </c>
       <c r="E11" t="n">
-        <v>0.416874713661864</v>
+        <v>0.371129106566843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.783395928588585</v>
+        <v>0.800742482462245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.603265243742281</v>
+        <v>0.629383857027561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C12" t="n">
-        <v>0.999536832381892</v>
+        <v>0.980226666182738</v>
       </c>
       <c r="D12" t="n">
-        <v>1.17017474840057</v>
+        <v>1.17286788250076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.455048913466403</v>
+        <v>0.510617892489048</v>
       </c>
       <c r="F12" t="n">
-        <v>1.21974896877788</v>
+        <v>1.22606691268507</v>
       </c>
       <c r="G12" t="n">
-        <v>1.24834713548543</v>
+        <v>1.19156401717501</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -65,7 +65,8 @@
     <t xml:space="preserve">It would be technically difficult to put in place</t>
   </si>
   <si>
-    <t xml:space="preserve">Having enough information on this scheme and its consequences</t>
+    <t xml:space="preserve">Having enough information on
+this scheme and its consequences</t>
   </si>
 </sst>
 </file>
@@ -424,253 +425,253 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>0.846028863704192</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08319023827628</v>
+        <v>1.08303390286476</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16421619628793</v>
+        <v>1.16414887159561</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12138821470141</v>
+        <v>1.1213896114462</v>
       </c>
       <c r="F2" t="n">
-        <v>1.14196195614053</v>
+        <v>1.09091245922179</v>
       </c>
       <c r="G2" t="n">
-        <v>0.994200987726731</v>
+        <v>0.994186179133232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
+      <c r="B3" t="n">
+        <v>1.00831684537899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.503573902345914</v>
+        <v>0.491188453953777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.326311051797047</v>
+        <v>0.326481814045042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49059571494142</v>
+        <v>0.490583370104542</v>
       </c>
       <c r="F3" t="n">
-        <v>0.554227372219119</v>
+        <v>0.456849444085595</v>
       </c>
       <c r="G3" t="n">
-        <v>0.598466829505179</v>
+        <v>0.598481967036809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="n">
+        <v>0.848494055094829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.382454139002094</v>
+        <v>0.376100794334335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206601675425004</v>
+        <v>0.206330805591796</v>
       </c>
       <c r="E4" t="n">
-        <v>0.465794884093649</v>
+        <v>0.465724961701286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.405541446132897</v>
+        <v>0.350453783387047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.447857578504275</v>
+        <v>0.44792552721857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>0.772420709421301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.865785954866452</v>
+        <v>0.865862872738852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.971482366626124</v>
+        <v>0.971402033446974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.881274103782843</v>
+        <v>0.88129752368892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.833425902886935</v>
+        <v>0.818603743348901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.820218479840119</v>
+        <v>0.820093880151065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="n">
+        <v>0.858967941779595</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06272619770505</v>
+        <v>1.06535189129941</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17792786578861</v>
+        <v>1.17771911690508</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02873364849604</v>
+        <v>1.02876851600192</v>
       </c>
       <c r="F6" t="n">
-        <v>1.09490947166375</v>
+        <v>1.08027653324676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.994777050138841</v>
+        <v>0.994771609908956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
+      <c r="B7" t="n">
+        <v>0.808563583101675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.619751750429645</v>
+        <v>0.620208326067206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.784575949285773</v>
+        <v>0.784593573446295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.447065353779166</v>
+        <v>0.447093763377283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.788499622673619</v>
+        <v>0.815458781466292</v>
       </c>
       <c r="G7" t="n">
-        <v>0.580182942822198</v>
+        <v>0.580190739637466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
+      <c r="B8" t="n">
+        <v>0.930907642035057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.938323106301198</v>
+        <v>0.943111292968609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9330637202976</v>
+        <v>0.933043550222372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.925849194780859</v>
+        <v>0.925833104071589</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0660813313343</v>
+        <v>1.05735180814457</v>
       </c>
       <c r="G8" t="n">
-        <v>0.908435564464885</v>
+        <v>0.90842599377814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
+      <c r="B9" t="n">
+        <v>0.855148363478726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75532203462695</v>
+        <v>0.751389207554992</v>
       </c>
       <c r="D9" t="n">
-        <v>0.92640368352775</v>
+        <v>0.926342304261278</v>
       </c>
       <c r="E9" t="n">
-        <v>0.571664675145692</v>
+        <v>0.571649612551668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.884066977078344</v>
+        <v>0.881091590441397</v>
       </c>
       <c r="G9" t="n">
-        <v>0.680453799881766</v>
+        <v>0.6805059208842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="n">
+        <v>0.93860359066353</v>
       </c>
       <c r="C10" t="n">
-        <v>0.86498612794777</v>
+        <v>0.858677356912053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.874192803519746</v>
+        <v>0.874004048647038</v>
       </c>
       <c r="E10" t="n">
-        <v>0.72234949549522</v>
+        <v>0.722391948574298</v>
       </c>
       <c r="F10" t="n">
-        <v>1.00003979973907</v>
+        <v>0.978759841180472</v>
       </c>
       <c r="G10" t="n">
-        <v>0.938247453258391</v>
+        <v>0.938257452436272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="n">
+        <v>0.87571881597896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.600233067631801</v>
+        <v>0.601156431507919</v>
       </c>
       <c r="D11" t="n">
-        <v>0.68284068601186</v>
+        <v>0.68276325887215</v>
       </c>
       <c r="E11" t="n">
-        <v>0.371129106566843</v>
+        <v>0.371178672841436</v>
       </c>
       <c r="F11" t="n">
-        <v>0.800742482462245</v>
+        <v>0.823327298881994</v>
       </c>
       <c r="G11" t="n">
-        <v>0.629383857027561</v>
+        <v>0.629511124697729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
+      <c r="B12" t="n">
+        <v>1.25116073829462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.980226666182738</v>
+        <v>0.981156889529825</v>
       </c>
       <c r="D12" t="n">
-        <v>1.17286788250076</v>
+        <v>1.17277503777523</v>
       </c>
       <c r="E12" t="n">
-        <v>0.510617892489048</v>
+        <v>0.510686451455885</v>
       </c>
       <c r="F12" t="n">
-        <v>1.22606691268507</v>
+        <v>1.25509842093364</v>
       </c>
       <c r="G12" t="n">
-        <v>1.19156401717501</v>
+        <v>1.19158174557919</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.846028863704192</v>
+        <v>0.840214432023529</v>
       </c>
       <c r="C2" t="n">
         <v>1.08303390286476</v>
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.00831684537899</v>
+        <v>0.971968883020768</v>
       </c>
       <c r="C3" t="n">
         <v>0.491188453953777</v>
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.848494055094829</v>
+        <v>0.835637153249157</v>
       </c>
       <c r="C4" t="n">
         <v>0.376100794334335</v>
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.772420709421301</v>
+        <v>0.779551822888141</v>
       </c>
       <c r="C5" t="n">
         <v>0.865862872738852</v>
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.858967941779595</v>
+        <v>0.856788525649059</v>
       </c>
       <c r="C6" t="n">
         <v>1.06535189129941</v>
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.808563583101675</v>
+        <v>0.797030182983098</v>
       </c>
       <c r="C7" t="n">
         <v>0.620208326067206</v>
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.930907642035057</v>
+        <v>0.937740355747153</v>
       </c>
       <c r="C8" t="n">
         <v>0.943111292968609</v>
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.855148363478726</v>
+        <v>0.861976151696081</v>
       </c>
       <c r="C9" t="n">
         <v>0.751389207554992</v>
@@ -610,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.93860359066353</v>
+        <v>0.956411893885032</v>
       </c>
       <c r="C10" t="n">
         <v>0.858677356912053</v>
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.87571881597896</v>
+        <v>0.884911664523514</v>
       </c>
       <c r="C11" t="n">
         <v>0.601156431507919</v>
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1.25116073829462</v>
+        <v>1.25631353861905</v>
       </c>
       <c r="C12" t="n">
         <v>0.981156889529825</v>

--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -426,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.840214432023529</v>
+        <v>0.227987442866985</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08303390286476</v>
+        <v>0.908388657222458</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16414887159561</v>
+        <v>1.06954675481358</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1213896114462</v>
+        <v>0.910832714319771</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09091245922179</v>
+        <v>0.794800886664094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.994186179133232</v>
+        <v>0.851526975572939</v>
       </c>
     </row>
     <row r="3">
@@ -449,22 +449,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.971968883020768</v>
+        <v>1.29012170421717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.491188453953777</v>
+        <v>0.71373160713859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.326481814045042</v>
+        <v>0.496042772941757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.490583370104542</v>
+        <v>0.799851834930106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.456849444085595</v>
+        <v>0.834655917235992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.598481967036809</v>
+        <v>0.771063245736172</v>
       </c>
     </row>
     <row r="4">
@@ -472,22 +472,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.835637153249157</v>
+        <v>1.10926326827653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.376100794334335</v>
+        <v>0.51466722089331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206330805591796</v>
+        <v>0.211105836973105</v>
       </c>
       <c r="E4" t="n">
-        <v>0.465724961701286</v>
+        <v>0.74432353515363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.350453783387047</v>
+        <v>0.723279278626472</v>
       </c>
       <c r="G4" t="n">
-        <v>0.44792552721857</v>
+        <v>0.576496484207996</v>
       </c>
     </row>
     <row r="5">
@@ -495,22 +495,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.779551822888141</v>
+        <v>0.654512957312685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.865862872738852</v>
+        <v>0.798072488788741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.971402033446974</v>
+        <v>0.968025998751942</v>
       </c>
       <c r="E5" t="n">
-        <v>0.88129752368892</v>
+        <v>0.723116256852647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.818603743348901</v>
+        <v>0.817536514958359</v>
       </c>
       <c r="G5" t="n">
-        <v>0.820093880151065</v>
+        <v>0.70834869538422</v>
       </c>
     </row>
     <row r="6">
@@ -518,22 +518,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.856788525649059</v>
+        <v>0.379813210645749</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06535189129941</v>
+        <v>0.859235379980694</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17771911690508</v>
+        <v>1.11214525010227</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02876851600192</v>
+        <v>0.69084106402753</v>
       </c>
       <c r="F6" t="n">
-        <v>1.08027653324676</v>
+        <v>0.870990343302749</v>
       </c>
       <c r="G6" t="n">
-        <v>0.994771609908956</v>
+        <v>0.780455656279622</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +541,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.797030182983098</v>
+        <v>0.524413356901235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.620208326067206</v>
+        <v>0.585625605236319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.784593573446295</v>
+        <v>0.728948201773656</v>
       </c>
       <c r="E7" t="n">
-        <v>0.447093763377283</v>
+        <v>0.383382498494704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.815458781466292</v>
+        <v>1.05151585827848</v>
       </c>
       <c r="G7" t="n">
-        <v>0.580190739637466</v>
+        <v>0.52659867237478</v>
       </c>
     </row>
     <row r="8">
@@ -564,22 +564,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.937740355747153</v>
+        <v>0.514200814604642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.943111292968609</v>
+        <v>0.779933020673987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.933043550222372</v>
+        <v>0.823717709544782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.925833104071589</v>
+        <v>0.709265859816006</v>
       </c>
       <c r="F8" t="n">
-        <v>1.05735180814457</v>
+        <v>0.93289574312254</v>
       </c>
       <c r="G8" t="n">
-        <v>0.90842599377814</v>
+        <v>0.734479715096122</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +587,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.861976151696081</v>
+        <v>0.855893363074046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.751389207554992</v>
+        <v>0.797391506851663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.926342304261278</v>
+        <v>0.980991011502419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.571649612551668</v>
+        <v>0.671367010266482</v>
       </c>
       <c r="F9" t="n">
-        <v>0.881091590441397</v>
+        <v>1.08020704088589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6805059208842</v>
+        <v>0.581903795122262</v>
       </c>
     </row>
     <row r="10">
@@ -610,22 +610,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.956411893885032</v>
+        <v>1.19208483609783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.858677356912053</v>
+        <v>0.949770482384599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.874004048647038</v>
+        <v>0.9875534552433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.722391948574298</v>
+        <v>0.950191641790629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.978759841180472</v>
+        <v>1.10893708753354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.938257452436272</v>
+        <v>0.839781045872143</v>
       </c>
     </row>
     <row r="11">
@@ -633,22 +633,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.884911664523514</v>
+        <v>1.22411264136072</v>
       </c>
       <c r="C11" t="n">
-        <v>0.601156431507919</v>
+        <v>0.69929992994411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.68276325887215</v>
+        <v>0.735244891461985</v>
       </c>
       <c r="E11" t="n">
-        <v>0.371178672841436</v>
+        <v>0.580082836498676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.823327298881994</v>
+        <v>1.04728151255664</v>
       </c>
       <c r="G11" t="n">
-        <v>0.629511124697729</v>
+        <v>0.614426923044058</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1.25631353861905</v>
+        <v>1.33752926205328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.981156889529825</v>
+        <v>0.999997430366336</v>
       </c>
       <c r="D12" t="n">
-        <v>1.17277503777523</v>
+        <v>1.16673423948734</v>
       </c>
       <c r="E12" t="n">
-        <v>0.510686451455885</v>
+        <v>0.54040163604503</v>
       </c>
       <c r="F12" t="n">
-        <v>1.25509842093364</v>
+        <v>1.34326922607862</v>
       </c>
       <c r="G12" t="n">
-        <v>1.19158174557919</v>
+        <v>1.14700450104329</v>
       </c>
     </row>
   </sheetData>
